--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/03.BaoGiaBH/BG210112_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/03.BaoGiaBH/BG210112_TarisSG.xlsx
@@ -113,10 +113,10 @@
     <t>Chiếc</t>
   </si>
   <si>
-    <t>Hà Nội, ngày 13 tháng 11 Năm 2020</t>
-  </si>
-  <si>
     <t>Mã số phiếu: BG210113</t>
+  </si>
+  <si>
+    <t>Hà Nội, ngày 13 tháng 01 Năm 2020</t>
   </si>
 </sst>
 </file>
@@ -667,6 +667,87 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -675,87 +756,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1114,7 +1114,7 @@
   <dimension ref="A1:AA44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:E24"/>
+      <selection activeCell="F24" sqref="F24:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1142,94 +1142,94 @@
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="60"/>
     </row>
     <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="45"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="51"/>
     </row>
     <row r="5" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="54"/>
     </row>
     <row r="6" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="40" t="s">
+      <c r="A6" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="48"/>
     </row>
     <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
       <c r="G7" s="12"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="59"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="25"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -1251,13 +1251,13 @@
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="13"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="59"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="25"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
@@ -1280,10 +1280,10 @@
     </row>
     <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="60"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="26"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -1393,17 +1393,17 @@
       <c r="AA14" s="15"/>
     </row>
     <row r="15" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
       <c r="J15" s="31">
         <f>SUM(J13:J14)</f>
         <v>300000</v>
@@ -1425,10 +1425,10 @@
     </row>
     <row r="17" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="27"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -1437,31 +1437,31 @@
       <c r="AA17" s="15"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E18" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
+      <c r="E18" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
       <c r="J18" s="24"/>
       <c r="AA18" s="15"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36" t="s">
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
       <c r="AA19" s="15"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
@@ -1488,20 +1488,20 @@
       <c r="AA23" s="15"/>
     </row>
     <row r="24" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34" t="s">
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
       <c r="AA24" s="15"/>
     </row>
     <row r="25" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -1573,6 +1573,16 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E2:J3"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="B8:C8"/>
@@ -1581,16 +1591,6 @@
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E2:J3"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="A24:E24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
